--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA552799-306B-1B48-8136-F52264157975}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2DC31F-FABD-D04A-9BCC-B67BEFBF7EA4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -641,13 +641,13 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>125</v>
+        <v>0.5</v>
       </c>
       <c r="E2">
         <v>0.64200000000000002</v>
       </c>
       <c r="F2">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G2">
         <v>210</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>125</v>
+        <v>0.5</v>
       </c>
       <c r="E3">
         <v>0.64200000000000002</v>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C2DC31F-FABD-D04A-9BCC-B67BEFBF7EA4}"/>
+  <xr:revisionPtr revIDLastSave="597" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E86EC9-3CDA-8A4F-8BAD-40F6B758BE6D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -585,6 +585,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -594,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -676,7 +681,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="F3">
-        <v>8.3000000000000004E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
       <c r="G3">
         <v>210</v>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="597" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E86EC9-3CDA-8A4F-8BAD-40F6B758BE6D}"/>
+  <xr:revisionPtr revIDLastSave="600" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489C48B5-4A1F-AB46-ACF6-C70310590113}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -550,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -588,6 +588,15 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -702,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E954898C-FDB2-714E-A8B5-FE740843B9D0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="600" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489C48B5-4A1F-AB46-ACF6-C70310590113}"/>
+  <xr:revisionPtr revIDLastSave="603" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D93C269B-E641-6A44-A22E-444EB554232D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -88,7 +88,7 @@
     <t>g_us_per_km</t>
   </si>
   <si>
-    <t>0.25 MVA 10/0.4 kV</t>
+    <t>0.25 MVA 20/0.4 kV</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E954898C-FDB2-714E-A8B5-FE740843B9D0}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="603" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D93C269B-E641-6A44-A22E-444EB554232D}"/>
+  <xr:revisionPtr revIDLastSave="604" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8930E037-99F4-CB41-80C3-40F061481EAA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -505,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6828D431-9275-7542-983D-5BF4EB4D2A81}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -548,10 +548,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -582,20 +582,6 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
         <v>0</v>
       </c>
     </row>

--- a/Gendata.xlsx
+++ b/Gendata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s2010285_ed_ac_uk/Documents/Semester 2/Dissertation/Writing documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="604" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8930E037-99F4-CB41-80C3-40F061481EAA}"/>
+  <xr:revisionPtr revIDLastSave="606" documentId="8_{D10563C0-20F0-104D-8940-538B507BD608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBD4D749-22C2-234F-AA76-AB34FA345952}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="2" r:id="rId1"/>
@@ -550,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BED4123C-376D-414E-B805-985C8B1A20C7}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -647,7 +647,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="F2">
-        <v>8.3000000000000001E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G2">
         <v>210</v>
@@ -676,7 +676,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="F3">
-        <v>8.3000000000000001E-3</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="G3">
         <v>210</v>
